--- a/Civilworks cost/RADP Preparations/Total Project/Projecttion_input.xlsx
+++ b/Civilworks cost/RADP Preparations/Total Project/Projecttion_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="8820" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="8820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HaorCode" sheetId="9" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4116" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4117" uniqueCount="610">
   <si>
     <t>Package Name</t>
   </si>
@@ -1903,6 +1903,9 @@
   </si>
   <si>
     <t>FF_15M_at_35050</t>
+  </si>
+  <si>
+    <t>Kishore gonj</t>
   </si>
 </sst>
 </file>
@@ -8915,10 +8918,10 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -9183,21 +9186,21 @@
       <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="54.44140625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="54.42578125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1"/>
-    <col min="10" max="12" width="24.33203125" customWidth="1"/>
-    <col min="13" max="13" width="33.33203125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="51.33203125" customWidth="1"/>
-    <col min="16" max="16" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="10" max="12" width="24.28515625" customWidth="1"/>
+    <col min="13" max="13" width="33.28515625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="51.28515625" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="63">
@@ -9703,7 +9706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="34" customFormat="1" ht="61.2" customHeight="1">
+    <row r="12" spans="1:16" s="34" customFormat="1" ht="61.15" customHeight="1">
       <c r="A12" s="111">
         <v>11</v>
       </c>
@@ -9840,7 +9843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="34" customFormat="1" ht="61.2" customHeight="1">
+    <row r="15" spans="1:16" s="34" customFormat="1" ht="61.15" customHeight="1">
       <c r="A15" s="111">
         <v>14</v>
       </c>
@@ -10259,7 +10262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="34" customFormat="1" ht="55.2" customHeight="1">
+    <row r="24" spans="1:16" s="34" customFormat="1" ht="55.15" customHeight="1">
       <c r="A24" s="111">
         <v>21</v>
       </c>
@@ -11034,7 +11037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="43.2" customHeight="1">
+    <row r="41" spans="1:16" ht="43.15" customHeight="1">
       <c r="A41" s="111">
         <v>40</v>
       </c>
@@ -11126,7 +11129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="43.2" customHeight="1">
+    <row r="43" spans="1:16" ht="43.15" customHeight="1">
       <c r="A43" s="111">
         <v>42</v>
       </c>
@@ -11171,7 +11174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="55.2" customHeight="1">
+    <row r="44" spans="1:16" ht="55.15" customHeight="1">
       <c r="A44" s="111">
         <v>43</v>
       </c>
@@ -11218,7 +11221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="43.2" customHeight="1">
+    <row r="45" spans="1:16" ht="43.15" customHeight="1">
       <c r="A45" s="111">
         <v>44</v>
       </c>
@@ -11263,7 +11266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="43.2" customHeight="1">
+    <row r="46" spans="1:16" ht="43.15" customHeight="1">
       <c r="A46" s="111">
         <v>45</v>
       </c>
@@ -11308,7 +11311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="43.2" customHeight="1">
+    <row r="47" spans="1:16" ht="43.15" customHeight="1">
       <c r="A47" s="111">
         <v>46</v>
       </c>
@@ -11353,7 +11356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="43.2" customHeight="1">
+    <row r="48" spans="1:16" ht="43.15" customHeight="1">
       <c r="A48" s="128">
         <v>47</v>
       </c>
@@ -11398,7 +11401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="43.2" customHeight="1">
+    <row r="49" spans="1:15" ht="43.15" customHeight="1">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="48"/>
@@ -11430,7 +11433,7 @@
       <c r="N49" s="19"/>
       <c r="O49" s="64"/>
     </row>
-    <row r="50" spans="1:15" ht="43.2" customHeight="1">
+    <row r="50" spans="1:15" ht="43.15" customHeight="1">
       <c r="A50" s="93"/>
       <c r="B50" s="93"/>
       <c r="C50" s="135"/>
@@ -11447,7 +11450,7 @@
       <c r="N50" s="93"/>
       <c r="O50" s="137"/>
     </row>
-    <row r="51" spans="1:15" ht="43.2" customHeight="1">
+    <row r="51" spans="1:15" ht="43.15" customHeight="1">
       <c r="A51" s="93"/>
       <c r="B51" s="93"/>
       <c r="C51" s="135"/>
@@ -11464,7 +11467,7 @@
       <c r="N51" s="93"/>
       <c r="O51" s="137"/>
     </row>
-    <row r="52" spans="1:15" ht="43.2" customHeight="1">
+    <row r="52" spans="1:15" ht="43.15" customHeight="1">
       <c r="A52" s="93"/>
       <c r="B52" s="93"/>
       <c r="C52" s="135"/>
@@ -11481,8 +11484,8 @@
       <c r="N52" s="93"/>
       <c r="O52" s="137"/>
     </row>
-    <row r="53" spans="1:15" ht="32.700000000000003" customHeight="1"/>
-    <row r="54" spans="1:15" ht="31.2" customHeight="1">
+    <row r="53" spans="1:15" ht="32.65" customHeight="1"/>
+    <row r="54" spans="1:15" ht="31.15" customHeight="1">
       <c r="E54" s="19"/>
       <c r="F54" s="138" t="s">
         <v>336</v>
@@ -11504,7 +11507,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="31.2" customHeight="1">
+    <row r="55" spans="1:15" ht="31.15" customHeight="1">
       <c r="E55" s="92" t="s">
         <v>122</v>
       </c>
@@ -11534,7 +11537,7 @@
         <v>737.31</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="31.2" customHeight="1">
+    <row r="56" spans="1:15" ht="31.15" customHeight="1">
       <c r="E56" s="92" t="s">
         <v>133</v>
       </c>
@@ -11564,7 +11567,7 @@
         <v>126.12607828129785</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="31.2" customHeight="1">
+    <row r="57" spans="1:15" ht="31.15" customHeight="1">
       <c r="E57" s="92" t="s">
         <v>184</v>
       </c>
@@ -11594,7 +11597,7 @@
         <v>256.16000000000008</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="31.2" customHeight="1">
+    <row r="58" spans="1:15" ht="31.15" customHeight="1">
       <c r="E58" s="92" t="s">
         <v>144</v>
       </c>
@@ -11624,7 +11627,7 @@
         <v>583.96524217689739</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="31.2" customHeight="1">
+    <row r="59" spans="1:15" ht="31.15" customHeight="1">
       <c r="E59" s="92" t="s">
         <v>155</v>
       </c>
@@ -11654,7 +11657,7 @@
         <v>604.22301787267156</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="31.2" customHeight="1">
+    <row r="60" spans="1:15" ht="31.15" customHeight="1">
       <c r="E60" s="92" t="s">
         <v>174</v>
       </c>
@@ -11684,7 +11687,7 @@
         <v>318.63482352406112</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="31.2" customHeight="1">
+    <row r="61" spans="1:15" ht="31.15" customHeight="1">
       <c r="F61" s="95">
         <f>SUM(F55:F60)</f>
         <v>7825.8594837851497</v>
@@ -11711,7 +11714,7 @@
         <v>2626.419161854928</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="31.2" customHeight="1">
+    <row r="62" spans="1:15" ht="31.15" customHeight="1">
       <c r="E62" s="94"/>
       <c r="F62" s="93"/>
       <c r="G62" s="93"/>
@@ -11720,8 +11723,8 @@
       <c r="J62" s="93"/>
       <c r="K62" s="93"/>
     </row>
-    <row r="63" spans="1:15" ht="31.2" customHeight="1"/>
-    <row r="64" spans="1:15" ht="31.2" customHeight="1"/>
+    <row r="63" spans="1:15" ht="31.15" customHeight="1"/>
+    <row r="64" spans="1:15" ht="31.15" customHeight="1"/>
   </sheetData>
   <sortState ref="A2:O48">
     <sortCondition ref="B2:B48"/>
@@ -11746,22 +11749,22 @@
       <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="54.44140625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="33.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="54.42578125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" customWidth="1"/>
-    <col min="9" max="9" width="29.33203125" customWidth="1"/>
-    <col min="10" max="10" width="31.6640625" customWidth="1"/>
-    <col min="11" max="13" width="24.33203125" customWidth="1"/>
-    <col min="14" max="14" width="33.33203125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="23.33203125" style="71" customWidth="1"/>
-    <col min="17" max="17" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" customWidth="1"/>
+    <col min="10" max="10" width="31.7109375" customWidth="1"/>
+    <col min="11" max="13" width="24.28515625" customWidth="1"/>
+    <col min="14" max="14" width="33.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="23.28515625" style="71" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="63">
@@ -13427,7 +13430,7 @@
       <c r="P40" s="85"/>
       <c r="Q40" s="34"/>
     </row>
-    <row r="41" spans="1:17" ht="43.2" customHeight="1">
+    <row r="41" spans="1:17" ht="43.15" customHeight="1">
       <c r="A41" s="69">
         <v>45</v>
       </c>
@@ -13469,7 +13472,7 @@
       <c r="P41" s="82"/>
       <c r="Q41" s="31"/>
     </row>
-    <row r="42" spans="1:17" ht="43.2" customHeight="1">
+    <row r="42" spans="1:17" ht="43.15" customHeight="1">
       <c r="A42" s="69">
         <v>30</v>
       </c>
@@ -13513,7 +13516,7 @@
       </c>
       <c r="Q42" s="31"/>
     </row>
-    <row r="43" spans="1:17" ht="43.2" customHeight="1">
+    <row r="43" spans="1:17" ht="43.15" customHeight="1">
       <c r="A43" s="69">
         <v>33</v>
       </c>
@@ -13557,7 +13560,7 @@
       </c>
       <c r="Q43" s="31"/>
     </row>
-    <row r="44" spans="1:17" ht="43.2" customHeight="1">
+    <row r="44" spans="1:17" ht="43.15" customHeight="1">
       <c r="A44" s="69">
         <v>36</v>
       </c>
@@ -13601,7 +13604,7 @@
       </c>
       <c r="Q44" s="31"/>
     </row>
-    <row r="45" spans="1:17" ht="43.2" customHeight="1">
+    <row r="45" spans="1:17" ht="43.15" customHeight="1">
       <c r="A45" s="69">
         <v>39</v>
       </c>
@@ -13645,7 +13648,7 @@
       </c>
       <c r="Q45" s="31"/>
     </row>
-    <row r="46" spans="1:17" ht="43.2" customHeight="1">
+    <row r="46" spans="1:17" ht="43.15" customHeight="1">
       <c r="A46" s="69">
         <v>43</v>
       </c>
@@ -13689,7 +13692,7 @@
       </c>
       <c r="Q46" s="31"/>
     </row>
-    <row r="47" spans="1:17" ht="43.2" customHeight="1">
+    <row r="47" spans="1:17" ht="43.15" customHeight="1">
       <c r="A47" s="69">
         <v>46</v>
       </c>
@@ -13731,7 +13734,7 @@
       <c r="P47" s="84"/>
       <c r="Q47" s="31"/>
     </row>
-    <row r="48" spans="1:17" ht="43.2" customHeight="1">
+    <row r="48" spans="1:17" ht="43.15" customHeight="1">
       <c r="A48" s="69">
         <v>47</v>
       </c>
@@ -13773,7 +13776,7 @@
       <c r="P48" s="86"/>
       <c r="Q48" s="31"/>
     </row>
-    <row r="49" spans="1:16" ht="43.2" customHeight="1">
+    <row r="49" spans="1:16" ht="43.15" customHeight="1">
       <c r="A49" s="211" t="s">
         <v>118</v>
       </c>
@@ -13808,7 +13811,7 @@
       <c r="O49" s="19"/>
       <c r="P49" s="87"/>
     </row>
-    <row r="50" spans="1:16" ht="43.2" customHeight="1">
+    <row r="50" spans="1:16" ht="43.15" customHeight="1">
       <c r="A50" s="92"/>
       <c r="B50" s="92"/>
       <c r="C50" s="92"/>
@@ -13826,7 +13829,7 @@
       <c r="O50" s="19"/>
       <c r="P50" s="87"/>
     </row>
-    <row r="51" spans="1:16" ht="43.2" customHeight="1">
+    <row r="51" spans="1:16" ht="43.15" customHeight="1">
       <c r="A51" s="92"/>
       <c r="B51" s="92"/>
       <c r="C51" s="92"/>
@@ -14118,12 +14121,12 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="9" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="9" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -14700,13 +14703,13 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.109375" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -14868,20 +14871,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="49.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" customWidth="1"/>
-    <col min="9" max="9" width="36.88671875" customWidth="1"/>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="9" max="9" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -15185,6 +15188,74 @@
       <c r="E16" s="167" t="s">
         <v>560</v>
       </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="71" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="133">
+        <v>291.81</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="133">
+        <v>6503.97</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="133">
+        <v>2546.54</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="133">
+        <v>51.09</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="31"/>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="31"/>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="133">
+        <v>5833.04</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="31"/>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="31"/>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="31"/>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15196,15 +15267,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -15928,20 +15999,20 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="48" style="24" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="25" customWidth="1"/>
     <col min="4" max="4" width="12" style="26" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="38.6640625" style="24" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="25" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="24" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" style="25" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" style="24" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" style="24" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="24" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="24" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="25" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" style="24" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" customHeight="1">
@@ -15984,7 +16055,7 @@
       <c r="M1" s="34"/>
       <c r="N1" s="34"/>
     </row>
-    <row r="2" spans="1:14" s="14" customFormat="1" ht="53.7" customHeight="1">
+    <row r="2" spans="1:14" s="14" customFormat="1" ht="53.65" customHeight="1">
       <c r="A2" s="49" t="s">
         <v>120</v>
       </c>
@@ -16200,7 +16271,7 @@
       <c r="M7" s="47"/>
       <c r="N7" s="47"/>
     </row>
-    <row r="8" spans="1:14" s="14" customFormat="1" ht="43.2" customHeight="1">
+    <row r="8" spans="1:14" s="14" customFormat="1" ht="43.15" customHeight="1">
       <c r="A8" s="49" t="s">
         <v>131</v>
       </c>
@@ -17697,23 +17768,23 @@
       <selection activeCell="C248" sqref="C248"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
     <col min="2" max="2" width="53" style="24" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="25" customWidth="1"/>
     <col min="4" max="4" width="12" style="26" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="24" customWidth="1"/>
     <col min="6" max="6" width="26" style="24" customWidth="1"/>
-    <col min="7" max="7" width="28.44140625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="25" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="24" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="25" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" style="25" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" style="24" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" style="24" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="24" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="25" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" style="25" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" style="24" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="24" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="55.5" customHeight="1">
@@ -17759,7 +17830,7 @@
       <c r="N1" s="34"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:15" ht="36">
+    <row r="2" spans="1:15" ht="37.5">
       <c r="A2" s="8" t="s">
         <v>526</v>
       </c>
@@ -17799,7 +17870,7 @@
       </c>
       <c r="N2" s="47"/>
     </row>
-    <row r="3" spans="1:15" ht="36">
+    <row r="3" spans="1:15" ht="37.5">
       <c r="A3" s="8" t="s">
         <v>526</v>
       </c>
@@ -17839,7 +17910,7 @@
       </c>
       <c r="N3" s="47"/>
     </row>
-    <row r="4" spans="1:15" ht="36">
+    <row r="4" spans="1:15" ht="37.5">
       <c r="A4" s="8" t="s">
         <v>526</v>
       </c>
@@ -17879,7 +17950,7 @@
       </c>
       <c r="N4" s="47"/>
     </row>
-    <row r="5" spans="1:15" ht="36">
+    <row r="5" spans="1:15" ht="37.5">
       <c r="A5" s="8" t="s">
         <v>526</v>
       </c>
@@ -17919,7 +17990,7 @@
       </c>
       <c r="N5" s="47"/>
     </row>
-    <row r="6" spans="1:15" ht="18">
+    <row r="6" spans="1:15" ht="37.5">
       <c r="A6" s="8" t="s">
         <v>526</v>
       </c>
@@ -17959,7 +18030,7 @@
       </c>
       <c r="N6" s="47"/>
     </row>
-    <row r="7" spans="1:15" ht="36">
+    <row r="7" spans="1:15" ht="37.5">
       <c r="A7" s="8" t="s">
         <v>526</v>
       </c>
@@ -17999,7 +18070,7 @@
       </c>
       <c r="N7" s="47"/>
     </row>
-    <row r="8" spans="1:15" ht="18">
+    <row r="8" spans="1:15" ht="18.75">
       <c r="A8" s="169" t="s">
         <v>503</v>
       </c>
@@ -18037,7 +18108,7 @@
       </c>
       <c r="N8" s="47"/>
     </row>
-    <row r="9" spans="1:15" ht="36">
+    <row r="9" spans="1:15" ht="37.5">
       <c r="A9" s="8" t="s">
         <v>503</v>
       </c>
@@ -18075,7 +18146,7 @@
       </c>
       <c r="N9" s="47"/>
     </row>
-    <row r="10" spans="1:15" ht="36">
+    <row r="10" spans="1:15" ht="37.5">
       <c r="A10" s="8" t="s">
         <v>503</v>
       </c>
@@ -18113,7 +18184,7 @@
       </c>
       <c r="N10" s="47"/>
     </row>
-    <row r="11" spans="1:15" ht="36">
+    <row r="11" spans="1:15" ht="37.5">
       <c r="A11" s="8" t="s">
         <v>503</v>
       </c>
@@ -18151,7 +18222,7 @@
       </c>
       <c r="N11" s="47"/>
     </row>
-    <row r="12" spans="1:15" ht="36">
+    <row r="12" spans="1:15" ht="37.5">
       <c r="A12" s="8" t="s">
         <v>503</v>
       </c>
@@ -18189,7 +18260,7 @@
       </c>
       <c r="N12" s="47"/>
     </row>
-    <row r="13" spans="1:15" ht="18">
+    <row r="13" spans="1:15" ht="18.75">
       <c r="A13" s="8" t="s">
         <v>503</v>
       </c>
@@ -18227,7 +18298,7 @@
       </c>
       <c r="N13" s="47"/>
     </row>
-    <row r="14" spans="1:15" ht="36">
+    <row r="14" spans="1:15" ht="37.5">
       <c r="A14" s="8" t="s">
         <v>503</v>
       </c>
@@ -18265,7 +18336,7 @@
       </c>
       <c r="N14" s="47"/>
     </row>
-    <row r="15" spans="1:15" ht="36">
+    <row r="15" spans="1:15" ht="37.5">
       <c r="A15" s="66" t="s">
         <v>496</v>
       </c>
@@ -18303,7 +18374,7 @@
       </c>
       <c r="N15" s="47"/>
     </row>
-    <row r="16" spans="1:15" ht="54">
+    <row r="16" spans="1:15" ht="56.25">
       <c r="A16" s="66" t="s">
         <v>496</v>
       </c>
@@ -18341,7 +18412,7 @@
       </c>
       <c r="N16" s="47"/>
     </row>
-    <row r="17" spans="1:14" ht="18">
+    <row r="17" spans="1:14" ht="18.75">
       <c r="A17" s="66" t="s">
         <v>496</v>
       </c>
@@ -18377,7 +18448,7 @@
       </c>
       <c r="N17" s="47"/>
     </row>
-    <row r="18" spans="1:14" ht="36">
+    <row r="18" spans="1:14" ht="37.5">
       <c r="A18" s="188" t="s">
         <v>490</v>
       </c>
@@ -18415,7 +18486,7 @@
       </c>
       <c r="N18" s="47"/>
     </row>
-    <row r="19" spans="1:14" ht="36">
+    <row r="19" spans="1:14" ht="37.5">
       <c r="A19" s="188" t="s">
         <v>490</v>
       </c>
@@ -18453,7 +18524,7 @@
       </c>
       <c r="N19" s="47"/>
     </row>
-    <row r="20" spans="1:14" ht="36">
+    <row r="20" spans="1:14" ht="37.5">
       <c r="A20" s="188" t="s">
         <v>490</v>
       </c>
@@ -18491,7 +18562,7 @@
       </c>
       <c r="N20" s="47"/>
     </row>
-    <row r="21" spans="1:14" ht="54">
+    <row r="21" spans="1:14" ht="56.25">
       <c r="A21" s="188" t="s">
         <v>490</v>
       </c>
@@ -18529,7 +18600,7 @@
       </c>
       <c r="N21" s="47"/>
     </row>
-    <row r="22" spans="1:14" ht="18">
+    <row r="22" spans="1:14" ht="18.75">
       <c r="A22" s="188" t="s">
         <v>490</v>
       </c>
@@ -18567,7 +18638,7 @@
       </c>
       <c r="N22" s="47"/>
     </row>
-    <row r="23" spans="1:14" ht="18">
+    <row r="23" spans="1:14" ht="37.5">
       <c r="A23" s="19" t="s">
         <v>485</v>
       </c>
@@ -18605,7 +18676,7 @@
       </c>
       <c r="N23" s="47"/>
     </row>
-    <row r="24" spans="1:14" ht="36">
+    <row r="24" spans="1:14" ht="56.25">
       <c r="A24" s="19" t="s">
         <v>485</v>
       </c>
@@ -18643,7 +18714,7 @@
       </c>
       <c r="N24" s="47"/>
     </row>
-    <row r="25" spans="1:14" ht="36">
+    <row r="25" spans="1:14" ht="56.25">
       <c r="A25" s="19" t="s">
         <v>485</v>
       </c>
@@ -18681,7 +18752,7 @@
       </c>
       <c r="N25" s="47"/>
     </row>
-    <row r="26" spans="1:14" ht="36">
+    <row r="26" spans="1:14" ht="56.25">
       <c r="A26" s="19" t="s">
         <v>485</v>
       </c>
@@ -18719,7 +18790,7 @@
       </c>
       <c r="N26" s="47"/>
     </row>
-    <row r="27" spans="1:14" ht="36">
+    <row r="27" spans="1:14" ht="56.25">
       <c r="A27" s="19" t="s">
         <v>485</v>
       </c>
@@ -18757,7 +18828,7 @@
       </c>
       <c r="N27" s="47"/>
     </row>
-    <row r="28" spans="1:14" ht="36">
+    <row r="28" spans="1:14" ht="56.25">
       <c r="A28" s="19" t="s">
         <v>485</v>
       </c>
@@ -18795,7 +18866,7 @@
       </c>
       <c r="N28" s="47"/>
     </row>
-    <row r="29" spans="1:14" ht="54">
+    <row r="29" spans="1:14" ht="75">
       <c r="A29" s="19" t="s">
         <v>485</v>
       </c>
@@ -18833,7 +18904,7 @@
       </c>
       <c r="N29" s="47"/>
     </row>
-    <row r="30" spans="1:14" ht="18">
+    <row r="30" spans="1:14" ht="18.75">
       <c r="A30" s="19" t="s">
         <v>485</v>
       </c>
@@ -18871,7 +18942,7 @@
       </c>
       <c r="N30" s="47"/>
     </row>
-    <row r="31" spans="1:14" ht="36">
+    <row r="31" spans="1:14" ht="37.5">
       <c r="A31" s="8" t="s">
         <v>476</v>
       </c>
@@ -18909,7 +18980,7 @@
       </c>
       <c r="N31" s="47"/>
     </row>
-    <row r="32" spans="1:14" ht="36">
+    <row r="32" spans="1:14" ht="37.5">
       <c r="A32" s="169" t="s">
         <v>476</v>
       </c>
@@ -18947,7 +19018,7 @@
       </c>
       <c r="N32" s="47"/>
     </row>
-    <row r="33" spans="1:14" ht="36">
+    <row r="33" spans="1:14" ht="37.5">
       <c r="A33" s="169" t="s">
         <v>476</v>
       </c>
@@ -18985,7 +19056,7 @@
       </c>
       <c r="N33" s="47"/>
     </row>
-    <row r="34" spans="1:14" ht="36">
+    <row r="34" spans="1:14" ht="37.5">
       <c r="A34" s="169" t="s">
         <v>476</v>
       </c>
@@ -19023,7 +19094,7 @@
       </c>
       <c r="N34" s="47"/>
     </row>
-    <row r="35" spans="1:14" ht="36">
+    <row r="35" spans="1:14" ht="37.5">
       <c r="A35" s="169" t="s">
         <v>476</v>
       </c>
@@ -19061,7 +19132,7 @@
       </c>
       <c r="N35" s="47"/>
     </row>
-    <row r="36" spans="1:14" ht="36">
+    <row r="36" spans="1:14" ht="37.5">
       <c r="A36" s="169" t="s">
         <v>476</v>
       </c>
@@ -19099,7 +19170,7 @@
       </c>
       <c r="N36" s="47"/>
     </row>
-    <row r="37" spans="1:14" ht="36">
+    <row r="37" spans="1:14" ht="37.5">
       <c r="A37" s="169" t="s">
         <v>476</v>
       </c>
@@ -19137,7 +19208,7 @@
       </c>
       <c r="N37" s="47"/>
     </row>
-    <row r="38" spans="1:14" ht="18">
+    <row r="38" spans="1:14" ht="18.75">
       <c r="A38" s="8" t="s">
         <v>467</v>
       </c>
@@ -19175,7 +19246,7 @@
       </c>
       <c r="N38" s="47"/>
     </row>
-    <row r="39" spans="1:14" ht="36">
+    <row r="39" spans="1:14" ht="37.5">
       <c r="A39" s="8" t="s">
         <v>467</v>
       </c>
@@ -19213,7 +19284,7 @@
       </c>
       <c r="N39" s="47"/>
     </row>
-    <row r="40" spans="1:14" ht="18">
+    <row r="40" spans="1:14" ht="18.75">
       <c r="A40" s="8" t="s">
         <v>467</v>
       </c>
@@ -19251,7 +19322,7 @@
       </c>
       <c r="N40" s="47"/>
     </row>
-    <row r="41" spans="1:14" ht="18">
+    <row r="41" spans="1:14" ht="18.75">
       <c r="A41" s="8" t="s">
         <v>467</v>
       </c>
@@ -19289,7 +19360,7 @@
       </c>
       <c r="N41" s="47"/>
     </row>
-    <row r="42" spans="1:14" ht="18">
+    <row r="42" spans="1:14" ht="18.75">
       <c r="A42" s="8" t="s">
         <v>467</v>
       </c>
@@ -19327,7 +19398,7 @@
       </c>
       <c r="N42" s="47"/>
     </row>
-    <row r="43" spans="1:14" ht="18">
+    <row r="43" spans="1:14" ht="18.75">
       <c r="A43" s="8" t="s">
         <v>467</v>
       </c>
@@ -19365,7 +19436,7 @@
       </c>
       <c r="N43" s="47"/>
     </row>
-    <row r="44" spans="1:14" ht="18">
+    <row r="44" spans="1:14" ht="18.75">
       <c r="A44" s="8" t="s">
         <v>467</v>
       </c>
@@ -19403,7 +19474,7 @@
       </c>
       <c r="N44" s="47"/>
     </row>
-    <row r="45" spans="1:14" ht="54">
+    <row r="45" spans="1:14" ht="75">
       <c r="A45" s="8" t="s">
         <v>467</v>
       </c>
@@ -19441,7 +19512,7 @@
       </c>
       <c r="N45" s="47"/>
     </row>
-    <row r="46" spans="1:14" ht="18">
+    <row r="46" spans="1:14" ht="18.75">
       <c r="A46" s="8" t="s">
         <v>467</v>
       </c>
@@ -19477,7 +19548,7 @@
       </c>
       <c r="N46" s="47"/>
     </row>
-    <row r="47" spans="1:14" ht="36">
+    <row r="47" spans="1:14" ht="37.5">
       <c r="A47" s="169" t="s">
         <v>443</v>
       </c>
@@ -19515,7 +19586,7 @@
       </c>
       <c r="N47" s="47"/>
     </row>
-    <row r="48" spans="1:14" ht="36">
+    <row r="48" spans="1:14" ht="37.5">
       <c r="A48" s="169" t="s">
         <v>443</v>
       </c>
@@ -19552,7 +19623,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="36">
+    <row r="49" spans="1:13" ht="37.5">
       <c r="A49" s="169" t="s">
         <v>443</v>
       </c>
@@ -19589,7 +19660,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="36">
+    <row r="50" spans="1:13" ht="37.5">
       <c r="A50" s="169" t="s">
         <v>443</v>
       </c>
@@ -19626,7 +19697,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="36">
+    <row r="51" spans="1:13" ht="37.5">
       <c r="A51" s="8" t="s">
         <v>441</v>
       </c>
@@ -19663,7 +19734,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="36">
+    <row r="52" spans="1:13" ht="37.5">
       <c r="A52" s="8" t="s">
         <v>441</v>
       </c>
@@ -19700,7 +19771,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="36">
+    <row r="53" spans="1:13" ht="37.5">
       <c r="A53" s="8" t="s">
         <v>441</v>
       </c>
@@ -19737,7 +19808,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="36">
+    <row r="54" spans="1:13" ht="37.5">
       <c r="A54" s="8" t="s">
         <v>441</v>
       </c>
@@ -19772,7 +19843,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="36">
+    <row r="55" spans="1:13" ht="37.5">
       <c r="A55" s="8" t="s">
         <v>440</v>
       </c>
@@ -19809,7 +19880,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="36">
+    <row r="56" spans="1:13" ht="56.25">
       <c r="A56" s="8" t="s">
         <v>440</v>
       </c>
@@ -19846,7 +19917,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="36">
+    <row r="57" spans="1:13" ht="37.5">
       <c r="A57" s="8" t="s">
         <v>428</v>
       </c>
@@ -19883,7 +19954,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="36">
+    <row r="58" spans="1:13" ht="37.5">
       <c r="A58" s="8" t="s">
         <v>428</v>
       </c>
@@ -19920,7 +19991,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="36">
+    <row r="59" spans="1:13" ht="37.5">
       <c r="A59" s="8" t="s">
         <v>428</v>
       </c>
@@ -19957,7 +20028,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="36">
+    <row r="60" spans="1:13" ht="37.5">
       <c r="A60" s="8" t="s">
         <v>428</v>
       </c>
@@ -19994,7 +20065,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="36">
+    <row r="61" spans="1:13" ht="37.5">
       <c r="A61" s="8" t="s">
         <v>428</v>
       </c>
@@ -20031,7 +20102,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="36">
+    <row r="62" spans="1:13" ht="37.5">
       <c r="A62" s="8" t="s">
         <v>428</v>
       </c>
@@ -20068,7 +20139,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="36">
+    <row r="63" spans="1:13" ht="37.5">
       <c r="A63" s="8" t="s">
         <v>428</v>
       </c>
@@ -20105,7 +20176,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="36">
+    <row r="64" spans="1:13" ht="37.5">
       <c r="A64" s="169" t="s">
         <v>455</v>
       </c>
@@ -20142,7 +20213,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="36">
+    <row r="65" spans="1:14" ht="37.5">
       <c r="A65" s="169" t="s">
         <v>455</v>
       </c>
@@ -20179,7 +20250,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="54">
+    <row r="66" spans="1:14" ht="56.25">
       <c r="A66" s="169" t="s">
         <v>455</v>
       </c>
@@ -20216,7 +20287,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="36">
+    <row r="67" spans="1:14" ht="37.5">
       <c r="A67" s="169" t="s">
         <v>455</v>
       </c>
@@ -20253,7 +20324,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="36">
+    <row r="68" spans="1:14" ht="37.5">
       <c r="A68" s="49" t="s">
         <v>452</v>
       </c>
@@ -20291,7 +20362,7 @@
       </c>
       <c r="N68" s="145"/>
     </row>
-    <row r="69" spans="1:14" ht="54">
+    <row r="69" spans="1:14" ht="56.25">
       <c r="A69" s="49" t="s">
         <v>452</v>
       </c>
@@ -20329,7 +20400,7 @@
       </c>
       <c r="N69" s="145"/>
     </row>
-    <row r="70" spans="1:14" ht="36">
+    <row r="70" spans="1:14" ht="37.5">
       <c r="A70" s="49" t="s">
         <v>452</v>
       </c>
@@ -20367,7 +20438,7 @@
       </c>
       <c r="N70" s="145"/>
     </row>
-    <row r="71" spans="1:14" ht="36">
+    <row r="71" spans="1:14" ht="37.5">
       <c r="A71" s="8" t="s">
         <v>449</v>
       </c>
@@ -20404,7 +20475,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="54">
+    <row r="72" spans="1:14" ht="56.25">
       <c r="A72" s="8" t="s">
         <v>449</v>
       </c>
@@ -20441,7 +20512,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="36">
+    <row r="73" spans="1:14" ht="37.5">
       <c r="A73" s="8" t="s">
         <v>432</v>
       </c>
@@ -20478,7 +20549,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="54">
+    <row r="74" spans="1:14" ht="56.25">
       <c r="A74" s="8" t="s">
         <v>432</v>
       </c>
@@ -20515,7 +20586,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="36">
+    <row r="75" spans="1:14" ht="37.5">
       <c r="A75" s="8" t="s">
         <v>432</v>
       </c>
@@ -20550,7 +20621,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="36">
+    <row r="76" spans="1:14" ht="37.5">
       <c r="A76" s="8" t="s">
         <v>413</v>
       </c>
@@ -20587,7 +20658,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="36">
+    <row r="77" spans="1:14" ht="37.5">
       <c r="A77" s="8" t="s">
         <v>413</v>
       </c>
@@ -20624,7 +20695,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="36">
+    <row r="78" spans="1:14" ht="37.5">
       <c r="A78" s="8" t="s">
         <v>413</v>
       </c>
@@ -20661,7 +20732,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="36">
+    <row r="79" spans="1:14" ht="37.5">
       <c r="A79" s="8" t="s">
         <v>413</v>
       </c>
@@ -20698,7 +20769,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="36">
+    <row r="80" spans="1:14" ht="37.5">
       <c r="A80" s="8" t="s">
         <v>413</v>
       </c>
@@ -20735,7 +20806,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="36">
+    <row r="81" spans="1:13" ht="37.5">
       <c r="A81" s="8" t="s">
         <v>413</v>
       </c>
@@ -20772,7 +20843,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="36">
+    <row r="82" spans="1:13" ht="37.5">
       <c r="A82" s="8" t="s">
         <v>413</v>
       </c>
@@ -20809,7 +20880,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="54">
+    <row r="83" spans="1:13" ht="56.25">
       <c r="A83" s="8" t="s">
         <v>413</v>
       </c>
@@ -20846,7 +20917,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="36">
+    <row r="84" spans="1:13" ht="37.5">
       <c r="A84" s="8" t="s">
         <v>413</v>
       </c>
@@ -20879,7 +20950,7 @@
       </c>
       <c r="M84" s="11"/>
     </row>
-    <row r="85" spans="1:13" ht="36">
+    <row r="85" spans="1:13" ht="37.5">
       <c r="A85" s="8" t="s">
         <v>413</v>
       </c>
@@ -20916,7 +20987,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="36">
+    <row r="86" spans="1:13" ht="37.5">
       <c r="A86" s="8" t="s">
         <v>506</v>
       </c>
@@ -20951,7 +21022,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="36">
+    <row r="87" spans="1:13" ht="37.5">
       <c r="A87" s="8" t="s">
         <v>506</v>
       </c>
@@ -20986,7 +21057,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="36">
+    <row r="88" spans="1:13" ht="37.5">
       <c r="A88" s="8" t="s">
         <v>506</v>
       </c>
@@ -21021,7 +21092,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="36">
+    <row r="89" spans="1:13" ht="37.5">
       <c r="A89" s="8" t="s">
         <v>506</v>
       </c>
@@ -21056,7 +21127,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="36">
+    <row r="90" spans="1:13" ht="37.5">
       <c r="A90" s="8" t="s">
         <v>506</v>
       </c>
@@ -21087,7 +21158,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="36">
+    <row r="91" spans="1:13" ht="37.5">
       <c r="A91" s="8" t="s">
         <v>506</v>
       </c>
@@ -21122,7 +21193,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="36">
+    <row r="92" spans="1:13" ht="37.5">
       <c r="A92" s="8" t="s">
         <v>506</v>
       </c>
@@ -21157,7 +21228,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="36">
+    <row r="93" spans="1:13" ht="37.5">
       <c r="A93" s="8" t="s">
         <v>506</v>
       </c>
@@ -21192,7 +21263,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="36">
+    <row r="94" spans="1:13" ht="37.5">
       <c r="A94" s="8" t="s">
         <v>506</v>
       </c>
@@ -21227,7 +21298,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="36">
+    <row r="95" spans="1:13" ht="37.5">
       <c r="A95" s="8" t="s">
         <v>506</v>
       </c>
@@ -21262,7 +21333,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="36">
+    <row r="96" spans="1:13" ht="37.5">
       <c r="A96" s="8" t="s">
         <v>419</v>
       </c>
@@ -21299,7 +21370,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="36">
+    <row r="97" spans="1:13" ht="37.5">
       <c r="A97" s="8" t="s">
         <v>419</v>
       </c>
@@ -21336,7 +21407,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="36">
+    <row r="98" spans="1:13" ht="37.5">
       <c r="A98" s="8" t="s">
         <v>384</v>
       </c>
@@ -21373,7 +21444,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="36">
+    <row r="99" spans="1:13" ht="37.5">
       <c r="A99" s="8" t="s">
         <v>384</v>
       </c>
@@ -21410,7 +21481,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="36">
+    <row r="100" spans="1:13" ht="37.5">
       <c r="A100" s="8" t="s">
         <v>384</v>
       </c>
@@ -21447,7 +21518,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="36">
+    <row r="101" spans="1:13" ht="37.5">
       <c r="A101" s="8" t="s">
         <v>384</v>
       </c>
@@ -21484,7 +21555,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="36">
+    <row r="102" spans="1:13" ht="37.5">
       <c r="A102" s="8" t="s">
         <v>384</v>
       </c>
@@ -21521,7 +21592,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="36">
+    <row r="103" spans="1:13" ht="37.5">
       <c r="A103" s="8" t="s">
         <v>384</v>
       </c>
@@ -21558,7 +21629,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="36">
+    <row r="104" spans="1:13" ht="37.5">
       <c r="A104" s="8" t="s">
         <v>384</v>
       </c>
@@ -21595,7 +21666,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="36">
+    <row r="105" spans="1:13" ht="37.5">
       <c r="A105" s="8" t="s">
         <v>384</v>
       </c>
@@ -21632,7 +21703,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="36">
+    <row r="106" spans="1:13" ht="37.5">
       <c r="A106" s="8" t="s">
         <v>384</v>
       </c>
@@ -21669,7 +21740,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="36">
+    <row r="107" spans="1:13" ht="37.5">
       <c r="A107" s="8" t="s">
         <v>522</v>
       </c>
@@ -21708,7 +21779,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="36">
+    <row r="108" spans="1:13" ht="37.5">
       <c r="A108" s="8" t="s">
         <v>522</v>
       </c>
@@ -21747,7 +21818,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="36">
+    <row r="109" spans="1:13" ht="56.25">
       <c r="A109" s="8" t="s">
         <v>522</v>
       </c>
@@ -21786,7 +21857,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="36">
+    <row r="110" spans="1:13" ht="37.5">
       <c r="A110" s="8" t="s">
         <v>522</v>
       </c>
@@ -21825,7 +21896,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="36">
+    <row r="111" spans="1:13" ht="37.5">
       <c r="A111" s="8" t="s">
         <v>408</v>
       </c>
@@ -21862,7 +21933,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="36">
+    <row r="112" spans="1:13" ht="37.5">
       <c r="A112" s="8" t="s">
         <v>408</v>
       </c>
@@ -21899,7 +21970,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="36">
+    <row r="113" spans="1:13" ht="37.5">
       <c r="A113" s="8" t="s">
         <v>408</v>
       </c>
@@ -21936,7 +22007,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="36">
+    <row r="114" spans="1:13" ht="37.5">
       <c r="A114" s="8" t="s">
         <v>408</v>
       </c>
@@ -21973,7 +22044,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="36">
+    <row r="115" spans="1:13" ht="37.5">
       <c r="A115" s="8" t="s">
         <v>408</v>
       </c>
@@ -22010,7 +22081,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="36">
+    <row r="116" spans="1:13" ht="37.5">
       <c r="A116" s="8" t="s">
         <v>408</v>
       </c>
@@ -22047,7 +22118,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="36">
+    <row r="117" spans="1:13" ht="37.5">
       <c r="A117" s="8" t="s">
         <v>408</v>
       </c>
@@ -22084,7 +22155,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="36">
+    <row r="118" spans="1:13" ht="37.5">
       <c r="A118" s="8" t="s">
         <v>408</v>
       </c>
@@ -22121,7 +22192,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="36">
+    <row r="119" spans="1:13" ht="37.5">
       <c r="A119" s="8" t="s">
         <v>408</v>
       </c>
@@ -22158,7 +22229,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="36">
+    <row r="120" spans="1:13" ht="37.5">
       <c r="A120" s="8" t="s">
         <v>408</v>
       </c>
@@ -22195,7 +22266,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="36">
+    <row r="121" spans="1:13" ht="37.5">
       <c r="A121" s="8" t="s">
         <v>408</v>
       </c>
@@ -22232,7 +22303,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="36">
+    <row r="122" spans="1:13" ht="37.5">
       <c r="A122" s="8" t="s">
         <v>408</v>
       </c>
@@ -22269,7 +22340,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="36">
+    <row r="123" spans="1:13" ht="37.5">
       <c r="A123" s="8" t="s">
         <v>408</v>
       </c>
@@ -22306,7 +22377,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="36">
+    <row r="124" spans="1:13" ht="37.5">
       <c r="A124" s="8" t="s">
         <v>408</v>
       </c>
@@ -22343,7 +22414,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="36">
+    <row r="125" spans="1:13" ht="37.5">
       <c r="A125" s="8" t="s">
         <v>355</v>
       </c>
@@ -22382,7 +22453,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="36">
+    <row r="126" spans="1:13" ht="37.5">
       <c r="A126" s="8" t="s">
         <v>355</v>
       </c>
@@ -22421,7 +22492,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="36">
+    <row r="127" spans="1:13" ht="37.5">
       <c r="A127" s="8" t="s">
         <v>355</v>
       </c>
@@ -22460,7 +22531,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="36">
+    <row r="128" spans="1:13" ht="37.5">
       <c r="A128" s="8" t="s">
         <v>355</v>
       </c>
@@ -22499,7 +22570,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="36">
+    <row r="129" spans="1:13" ht="37.5">
       <c r="A129" s="8" t="s">
         <v>355</v>
       </c>
@@ -22538,7 +22609,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="36">
+    <row r="130" spans="1:13" ht="37.5">
       <c r="A130" s="8" t="s">
         <v>355</v>
       </c>
@@ -22577,7 +22648,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="36">
+    <row r="131" spans="1:13" ht="37.5">
       <c r="A131" s="8" t="s">
         <v>355</v>
       </c>
@@ -22616,7 +22687,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="36">
+    <row r="132" spans="1:13" ht="37.5">
       <c r="A132" s="8" t="s">
         <v>366</v>
       </c>
@@ -22655,7 +22726,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="36">
+    <row r="133" spans="1:13" ht="37.5">
       <c r="A133" s="8" t="s">
         <v>379</v>
       </c>
@@ -22694,7 +22765,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="36">
+    <row r="134" spans="1:13" ht="37.5">
       <c r="A134" s="8" t="s">
         <v>379</v>
       </c>
@@ -22733,7 +22804,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="36">
+    <row r="135" spans="1:13" ht="37.5">
       <c r="A135" s="8" t="s">
         <v>379</v>
       </c>
@@ -22772,7 +22843,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="36">
+    <row r="136" spans="1:13" ht="37.5">
       <c r="A136" s="8" t="s">
         <v>379</v>
       </c>
@@ -22811,7 +22882,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="36">
+    <row r="137" spans="1:13" ht="37.5">
       <c r="A137" s="8" t="s">
         <v>379</v>
       </c>
@@ -22850,7 +22921,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="36">
+    <row r="138" spans="1:13" ht="37.5">
       <c r="A138" s="8" t="s">
         <v>379</v>
       </c>
@@ -22889,7 +22960,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="36">
+    <row r="139" spans="1:13" ht="37.5">
       <c r="A139" s="8" t="s">
         <v>379</v>
       </c>
@@ -22928,7 +22999,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="36">
+    <row r="140" spans="1:13" ht="37.5">
       <c r="A140" s="8" t="s">
         <v>379</v>
       </c>
@@ -22967,7 +23038,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="36">
+    <row r="141" spans="1:13" ht="37.5">
       <c r="A141" s="8" t="s">
         <v>374</v>
       </c>
@@ -23006,7 +23077,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="36">
+    <row r="142" spans="1:13" ht="37.5">
       <c r="A142" s="8" t="s">
         <v>374</v>
       </c>
@@ -23045,7 +23116,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="36">
+    <row r="143" spans="1:13" ht="37.5">
       <c r="A143" s="8" t="s">
         <v>374</v>
       </c>
@@ -23084,7 +23155,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="36">
+    <row r="144" spans="1:13" ht="37.5">
       <c r="A144" s="8" t="s">
         <v>374</v>
       </c>
@@ -23123,7 +23194,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="36">
+    <row r="145" spans="1:14" ht="37.5">
       <c r="A145" s="75" t="s">
         <v>374</v>
       </c>
@@ -23162,7 +23233,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="18">
+    <row r="146" spans="1:14" ht="18.75">
       <c r="A146" s="75" t="s">
         <v>568</v>
       </c>
@@ -23202,7 +23273,7 @@
       </c>
       <c r="N146" s="19"/>
     </row>
-    <row r="147" spans="1:14" ht="18">
+    <row r="147" spans="1:14" ht="18.75">
       <c r="A147" s="75" t="s">
         <v>568</v>
       </c>
@@ -23242,7 +23313,7 @@
       </c>
       <c r="N147" s="19"/>
     </row>
-    <row r="148" spans="1:14" ht="18">
+    <row r="148" spans="1:14" ht="18.75">
       <c r="A148" s="75" t="s">
         <v>568</v>
       </c>
@@ -23282,7 +23353,7 @@
       </c>
       <c r="N148" s="19"/>
     </row>
-    <row r="149" spans="1:14" ht="18">
+    <row r="149" spans="1:14" ht="18.75">
       <c r="A149" s="75" t="s">
         <v>568</v>
       </c>
@@ -23322,7 +23393,7 @@
       </c>
       <c r="N149" s="19"/>
     </row>
-    <row r="150" spans="1:14" ht="18">
+    <row r="150" spans="1:14" ht="18.75">
       <c r="A150" s="8" t="s">
         <v>568</v>
       </c>
@@ -23362,7 +23433,7 @@
       </c>
       <c r="N150" s="19"/>
     </row>
-    <row r="151" spans="1:14" ht="36">
+    <row r="151" spans="1:14" ht="37.5">
       <c r="A151" s="75" t="s">
         <v>574</v>
       </c>
@@ -23402,7 +23473,7 @@
       </c>
       <c r="N151" s="19"/>
     </row>
-    <row r="152" spans="1:14" ht="36">
+    <row r="152" spans="1:14" ht="56.25">
       <c r="A152" s="75" t="s">
         <v>120</v>
       </c>
@@ -23441,7 +23512,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="36">
+    <row r="153" spans="1:14" ht="56.25">
       <c r="A153" s="75" t="s">
         <v>120</v>
       </c>
@@ -23480,7 +23551,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="36">
+    <row r="154" spans="1:14" ht="37.5">
       <c r="A154" s="75" t="s">
         <v>120</v>
       </c>
@@ -23519,7 +23590,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="36">
+    <row r="155" spans="1:14" ht="37.5">
       <c r="A155" s="75" t="s">
         <v>120</v>
       </c>
@@ -23558,7 +23629,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="36">
+    <row r="156" spans="1:14" ht="37.5">
       <c r="A156" s="75" t="s">
         <v>120</v>
       </c>
@@ -23597,7 +23668,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="36">
+    <row r="157" spans="1:14" ht="37.5">
       <c r="A157" s="75" t="s">
         <v>120</v>
       </c>
@@ -23636,7 +23707,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="158" spans="1:14" ht="36">
+    <row r="158" spans="1:14" ht="56.25">
       <c r="A158" s="75" t="s">
         <v>131</v>
       </c>
@@ -23675,7 +23746,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="159" spans="1:14" ht="36">
+    <row r="159" spans="1:14" ht="37.5">
       <c r="A159" s="75" t="s">
         <v>131</v>
       </c>
@@ -23714,7 +23785,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="160" spans="1:14" ht="36">
+    <row r="160" spans="1:14" ht="37.5">
       <c r="A160" s="75" t="s">
         <v>131</v>
       </c>
@@ -23753,7 +23824,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="36">
+    <row r="161" spans="1:13" ht="37.5">
       <c r="A161" s="75" t="s">
         <v>131</v>
       </c>
@@ -23792,7 +23863,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="36">
+    <row r="162" spans="1:13" ht="37.5">
       <c r="A162" s="75" t="s">
         <v>131</v>
       </c>
@@ -23831,7 +23902,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="36">
+    <row r="163" spans="1:13" ht="37.5">
       <c r="A163" s="75" t="s">
         <v>131</v>
       </c>
@@ -23870,7 +23941,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="36">
+    <row r="164" spans="1:13" ht="37.5">
       <c r="A164" s="75" t="s">
         <v>131</v>
       </c>
@@ -23907,7 +23978,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="36">
+    <row r="165" spans="1:13" ht="37.5">
       <c r="A165" s="75" t="s">
         <v>169</v>
       </c>
@@ -23946,7 +24017,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="36">
+    <row r="166" spans="1:13" ht="37.5">
       <c r="A166" s="75" t="s">
         <v>169</v>
       </c>
@@ -23985,7 +24056,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="36">
+    <row r="167" spans="1:13" ht="37.5">
       <c r="A167" s="75" t="s">
         <v>142</v>
       </c>
@@ -24024,7 +24095,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="36">
+    <row r="168" spans="1:13" ht="37.5">
       <c r="A168" s="75" t="s">
         <v>142</v>
       </c>
@@ -24063,7 +24134,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="36">
+    <row r="169" spans="1:13" ht="37.5">
       <c r="A169" s="75" t="s">
         <v>142</v>
       </c>
@@ -24102,7 +24173,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="36">
+    <row r="170" spans="1:13" ht="37.5">
       <c r="A170" s="75" t="s">
         <v>148</v>
       </c>
@@ -24141,7 +24212,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="36">
+    <row r="171" spans="1:13" ht="37.5">
       <c r="A171" s="75" t="s">
         <v>148</v>
       </c>
@@ -24180,7 +24251,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="36">
+    <row r="172" spans="1:13" ht="37.5">
       <c r="A172" s="75" t="s">
         <v>148</v>
       </c>
@@ -24219,7 +24290,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="36">
+    <row r="173" spans="1:13" ht="37.5">
       <c r="A173" s="75" t="s">
         <v>142</v>
       </c>
@@ -24258,7 +24329,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="36">
+    <row r="174" spans="1:13" ht="37.5">
       <c r="A174" s="75" t="s">
         <v>153</v>
       </c>
@@ -24297,7 +24368,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="36">
+    <row r="175" spans="1:13" ht="37.5">
       <c r="A175" s="75" t="s">
         <v>153</v>
       </c>
@@ -24336,7 +24407,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="36">
+    <row r="176" spans="1:13" ht="37.5">
       <c r="A176" s="75" t="s">
         <v>153</v>
       </c>
@@ -24375,7 +24446,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="36">
+    <row r="177" spans="1:13" ht="37.5">
       <c r="A177" s="75" t="s">
         <v>153</v>
       </c>
@@ -24414,7 +24485,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="36">
+    <row r="178" spans="1:13" ht="37.5">
       <c r="A178" s="75" t="s">
         <v>153</v>
       </c>
@@ -24453,7 +24524,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="36">
+    <row r="179" spans="1:13" ht="37.5">
       <c r="A179" s="75" t="s">
         <v>153</v>
       </c>
@@ -24492,7 +24563,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="36">
+    <row r="180" spans="1:13" ht="37.5">
       <c r="A180" s="75" t="s">
         <v>153</v>
       </c>
@@ -24531,7 +24602,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="36">
+    <row r="181" spans="1:13" ht="37.5">
       <c r="A181" s="75" t="s">
         <v>153</v>
       </c>
@@ -24570,7 +24641,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="36">
+    <row r="182" spans="1:13" ht="37.5">
       <c r="A182" s="75" t="s">
         <v>153</v>
       </c>
@@ -24609,7 +24680,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="36">
+    <row r="183" spans="1:13" ht="37.5">
       <c r="A183" s="75" t="s">
         <v>153</v>
       </c>
@@ -24648,7 +24719,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="36">
+    <row r="184" spans="1:13" ht="37.5">
       <c r="A184" s="75" t="s">
         <v>153</v>
       </c>
@@ -24687,7 +24758,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="36">
+    <row r="185" spans="1:13" ht="37.5">
       <c r="A185" s="75" t="s">
         <v>153</v>
       </c>
@@ -24726,7 +24797,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="36">
+    <row r="186" spans="1:13" ht="37.5">
       <c r="A186" s="75" t="s">
         <v>153</v>
       </c>
@@ -24765,7 +24836,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="36">
+    <row r="187" spans="1:13" ht="37.5">
       <c r="A187" s="75" t="s">
         <v>153</v>
       </c>
@@ -24804,7 +24875,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="36">
+    <row r="188" spans="1:13" ht="37.5">
       <c r="A188" s="75" t="s">
         <v>172</v>
       </c>
@@ -24843,7 +24914,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="36">
+    <row r="189" spans="1:13" ht="37.5">
       <c r="A189" s="75" t="s">
         <v>172</v>
       </c>
@@ -24882,7 +24953,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="36">
+    <row r="190" spans="1:13" ht="37.5">
       <c r="A190" s="75" t="s">
         <v>172</v>
       </c>
@@ -24921,7 +24992,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="36">
+    <row r="191" spans="1:13" ht="37.5">
       <c r="A191" s="75" t="s">
         <v>172</v>
       </c>
@@ -24960,7 +25031,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="36">
+    <row r="192" spans="1:13" ht="37.5">
       <c r="A192" s="75" t="s">
         <v>172</v>
       </c>
@@ -24999,7 +25070,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="193" spans="1:14" ht="36">
+    <row r="193" spans="1:14" ht="37.5">
       <c r="A193" s="75" t="s">
         <v>172</v>
       </c>
@@ -25038,7 +25109,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="194" spans="1:14" ht="36">
+    <row r="194" spans="1:14" ht="37.5">
       <c r="A194" s="75" t="s">
         <v>172</v>
       </c>
@@ -25077,7 +25148,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="195" spans="1:14" ht="36">
+    <row r="195" spans="1:14" ht="37.5">
       <c r="A195" s="75" t="s">
         <v>172</v>
       </c>
@@ -25116,7 +25187,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="196" spans="1:14" ht="36">
+    <row r="196" spans="1:14" ht="37.5">
       <c r="A196" s="75" t="s">
         <v>172</v>
       </c>
@@ -25155,7 +25226,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="197" spans="1:14" ht="36">
+    <row r="197" spans="1:14" ht="37.5">
       <c r="A197" s="75" t="s">
         <v>172</v>
       </c>
@@ -25194,7 +25265,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="198" spans="1:14" ht="36">
+    <row r="198" spans="1:14" ht="37.5">
       <c r="A198" s="8" t="s">
         <v>574</v>
       </c>
@@ -25233,7 +25304,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="199" spans="1:14" ht="36">
+    <row r="199" spans="1:14" ht="37.5">
       <c r="A199" s="75" t="s">
         <v>10</v>
       </c>
@@ -25273,7 +25344,7 @@
       </c>
       <c r="N199" s="75"/>
     </row>
-    <row r="200" spans="1:14" ht="36">
+    <row r="200" spans="1:14" ht="37.5">
       <c r="A200" s="75" t="s">
         <v>10</v>
       </c>
@@ -25313,7 +25384,7 @@
       </c>
       <c r="N200" s="75"/>
     </row>
-    <row r="201" spans="1:14" ht="54">
+    <row r="201" spans="1:14" ht="56.25">
       <c r="A201" s="75" t="s">
         <v>20</v>
       </c>
@@ -25353,7 +25424,7 @@
       </c>
       <c r="N201" s="75"/>
     </row>
-    <row r="202" spans="1:14" ht="54">
+    <row r="202" spans="1:14" ht="56.25">
       <c r="A202" s="75" t="s">
         <v>20</v>
       </c>
@@ -25393,7 +25464,7 @@
       </c>
       <c r="N202" s="75"/>
     </row>
-    <row r="203" spans="1:14" ht="54">
+    <row r="203" spans="1:14" ht="56.25">
       <c r="A203" s="75" t="s">
         <v>20</v>
       </c>
@@ -25433,7 +25504,7 @@
       </c>
       <c r="N203" s="75"/>
     </row>
-    <row r="204" spans="1:14" ht="54">
+    <row r="204" spans="1:14" ht="56.25">
       <c r="A204" s="75" t="s">
         <v>20</v>
       </c>
@@ -25473,7 +25544,7 @@
       </c>
       <c r="N204" s="75"/>
     </row>
-    <row r="205" spans="1:14" ht="54">
+    <row r="205" spans="1:14" ht="56.25">
       <c r="A205" s="75" t="s">
         <v>20</v>
       </c>
@@ -25513,7 +25584,7 @@
       </c>
       <c r="N205" s="75"/>
     </row>
-    <row r="206" spans="1:14" ht="54">
+    <row r="206" spans="1:14" ht="56.25">
       <c r="A206" s="75" t="s">
         <v>20</v>
       </c>
@@ -25553,7 +25624,7 @@
       </c>
       <c r="N206" s="75"/>
     </row>
-    <row r="207" spans="1:14" ht="54">
+    <row r="207" spans="1:14" ht="56.25">
       <c r="A207" s="75" t="s">
         <v>20</v>
       </c>
@@ -25593,7 +25664,7 @@
       </c>
       <c r="N207" s="75"/>
     </row>
-    <row r="208" spans="1:14" ht="54">
+    <row r="208" spans="1:14" ht="56.25">
       <c r="A208" s="75" t="s">
         <v>20</v>
       </c>
@@ -25633,7 +25704,7 @@
       </c>
       <c r="N208" s="75"/>
     </row>
-    <row r="209" spans="1:14" ht="54">
+    <row r="209" spans="1:14" ht="56.25">
       <c r="A209" s="75" t="s">
         <v>20</v>
       </c>
@@ -25673,7 +25744,7 @@
       </c>
       <c r="N209" s="75"/>
     </row>
-    <row r="210" spans="1:14" ht="54">
+    <row r="210" spans="1:14" ht="56.25">
       <c r="A210" s="75" t="s">
         <v>20</v>
       </c>
@@ -25713,7 +25784,7 @@
       </c>
       <c r="N210" s="75"/>
     </row>
-    <row r="211" spans="1:14" ht="54">
+    <row r="211" spans="1:14" ht="56.25">
       <c r="A211" s="75" t="s">
         <v>32</v>
       </c>
@@ -25753,7 +25824,7 @@
       </c>
       <c r="N211" s="75"/>
     </row>
-    <row r="212" spans="1:14" ht="54">
+    <row r="212" spans="1:14" ht="56.25">
       <c r="A212" s="75" t="s">
         <v>32</v>
       </c>
@@ -25793,7 +25864,7 @@
       </c>
       <c r="N212" s="75"/>
     </row>
-    <row r="213" spans="1:14" ht="54">
+    <row r="213" spans="1:14" ht="56.25">
       <c r="A213" s="75" t="s">
         <v>32</v>
       </c>
@@ -25833,7 +25904,7 @@
       </c>
       <c r="N213" s="75"/>
     </row>
-    <row r="214" spans="1:14" ht="36">
+    <row r="214" spans="1:14" ht="37.5">
       <c r="A214" s="75" t="s">
         <v>38</v>
       </c>
@@ -25873,7 +25944,7 @@
       </c>
       <c r="N214" s="75"/>
     </row>
-    <row r="215" spans="1:14" ht="36">
+    <row r="215" spans="1:14" ht="37.5">
       <c r="A215" s="75" t="s">
         <v>38</v>
       </c>
@@ -25913,7 +25984,7 @@
       </c>
       <c r="N215" s="75"/>
     </row>
-    <row r="216" spans="1:14" ht="36">
+    <row r="216" spans="1:14" ht="37.5">
       <c r="A216" s="75" t="s">
         <v>38</v>
       </c>
@@ -25953,7 +26024,7 @@
       </c>
       <c r="N216" s="75"/>
     </row>
-    <row r="217" spans="1:14" ht="36">
+    <row r="217" spans="1:14" ht="37.5">
       <c r="A217" s="75" t="s">
         <v>38</v>
       </c>
@@ -25993,7 +26064,7 @@
       </c>
       <c r="N217" s="75"/>
     </row>
-    <row r="218" spans="1:14" ht="36">
+    <row r="218" spans="1:14" ht="37.5">
       <c r="A218" s="75" t="s">
         <v>38</v>
       </c>
@@ -26033,7 +26104,7 @@
       </c>
       <c r="N218" s="75"/>
     </row>
-    <row r="219" spans="1:14" ht="36">
+    <row r="219" spans="1:14" ht="37.5">
       <c r="A219" s="75" t="s">
         <v>38</v>
       </c>
@@ -26073,7 +26144,7 @@
       </c>
       <c r="N219" s="75"/>
     </row>
-    <row r="220" spans="1:14" ht="36">
+    <row r="220" spans="1:14" ht="37.5">
       <c r="A220" s="75" t="s">
         <v>51</v>
       </c>
@@ -26113,7 +26184,7 @@
       </c>
       <c r="N220" s="75"/>
     </row>
-    <row r="221" spans="1:14" ht="36">
+    <row r="221" spans="1:14" ht="37.5">
       <c r="A221" s="75" t="s">
         <v>51</v>
       </c>
@@ -26153,7 +26224,7 @@
       </c>
       <c r="N221" s="75"/>
     </row>
-    <row r="222" spans="1:14" ht="36">
+    <row r="222" spans="1:14" ht="37.5">
       <c r="A222" s="75" t="s">
         <v>51</v>
       </c>
@@ -26193,7 +26264,7 @@
       </c>
       <c r="N222" s="75"/>
     </row>
-    <row r="223" spans="1:14" ht="36">
+    <row r="223" spans="1:14" ht="37.5">
       <c r="A223" s="75" t="s">
         <v>51</v>
       </c>
@@ -26233,7 +26304,7 @@
       </c>
       <c r="N223" s="75"/>
     </row>
-    <row r="224" spans="1:14" ht="36">
+    <row r="224" spans="1:14" ht="37.5">
       <c r="A224" s="75" t="s">
         <v>51</v>
       </c>
@@ -26273,7 +26344,7 @@
       </c>
       <c r="N224" s="75"/>
     </row>
-    <row r="225" spans="1:14" ht="36">
+    <row r="225" spans="1:14" ht="37.5">
       <c r="A225" s="75" t="s">
         <v>61</v>
       </c>
@@ -26313,7 +26384,7 @@
       </c>
       <c r="N225" s="75"/>
     </row>
-    <row r="226" spans="1:14" ht="36">
+    <row r="226" spans="1:14" ht="37.5">
       <c r="A226" s="75" t="s">
         <v>61</v>
       </c>
@@ -26353,7 +26424,7 @@
       </c>
       <c r="N226" s="75"/>
     </row>
-    <row r="227" spans="1:14" ht="36">
+    <row r="227" spans="1:14" ht="37.5">
       <c r="A227" s="75" t="s">
         <v>61</v>
       </c>
@@ -26393,7 +26464,7 @@
       </c>
       <c r="N227" s="75"/>
     </row>
-    <row r="228" spans="1:14" ht="36">
+    <row r="228" spans="1:14" ht="37.5">
       <c r="A228" s="75" t="s">
         <v>61</v>
       </c>
@@ -26433,7 +26504,7 @@
       </c>
       <c r="N228" s="75"/>
     </row>
-    <row r="229" spans="1:14" ht="36">
+    <row r="229" spans="1:14" ht="37.5">
       <c r="A229" s="75" t="s">
         <v>61</v>
       </c>
@@ -26473,7 +26544,7 @@
       </c>
       <c r="N229" s="75"/>
     </row>
-    <row r="230" spans="1:14" ht="36">
+    <row r="230" spans="1:14" ht="37.5">
       <c r="A230" s="75" t="s">
         <v>61</v>
       </c>
@@ -26513,7 +26584,7 @@
       </c>
       <c r="N230" s="75"/>
     </row>
-    <row r="231" spans="1:14" ht="36">
+    <row r="231" spans="1:14" ht="37.5">
       <c r="A231" s="75" t="s">
         <v>61</v>
       </c>
@@ -26553,7 +26624,7 @@
       </c>
       <c r="N231" s="75"/>
     </row>
-    <row r="232" spans="1:14" ht="36">
+    <row r="232" spans="1:14" ht="37.5">
       <c r="A232" s="75" t="s">
         <v>61</v>
       </c>
@@ -26593,7 +26664,7 @@
       </c>
       <c r="N232" s="75"/>
     </row>
-    <row r="233" spans="1:14" ht="36">
+    <row r="233" spans="1:14" ht="37.5">
       <c r="A233" s="75" t="s">
         <v>61</v>
       </c>
@@ -26633,7 +26704,7 @@
       </c>
       <c r="N233" s="75"/>
     </row>
-    <row r="234" spans="1:14" ht="36">
+    <row r="234" spans="1:14" ht="37.5">
       <c r="A234" s="75" t="s">
         <v>72</v>
       </c>
@@ -26673,7 +26744,7 @@
       </c>
       <c r="N234" s="75"/>
     </row>
-    <row r="235" spans="1:14" ht="36">
+    <row r="235" spans="1:14" ht="37.5">
       <c r="A235" s="75" t="s">
         <v>72</v>
       </c>
@@ -26713,7 +26784,7 @@
       </c>
       <c r="N235" s="75"/>
     </row>
-    <row r="236" spans="1:14" ht="36">
+    <row r="236" spans="1:14" ht="37.5">
       <c r="A236" s="75" t="s">
         <v>587</v>
       </c>
@@ -26753,7 +26824,7 @@
       </c>
       <c r="N236" s="75"/>
     </row>
-    <row r="237" spans="1:14" ht="36">
+    <row r="237" spans="1:14" ht="37.5">
       <c r="A237" s="75" t="s">
         <v>587</v>
       </c>
@@ -26793,7 +26864,7 @@
       </c>
       <c r="N237" s="75"/>
     </row>
-    <row r="238" spans="1:14" ht="36">
+    <row r="238" spans="1:14" ht="37.5">
       <c r="A238" s="75" t="s">
         <v>587</v>
       </c>
@@ -26833,7 +26904,7 @@
       </c>
       <c r="N238" s="75"/>
     </row>
-    <row r="239" spans="1:14" ht="36">
+    <row r="239" spans="1:14" ht="37.5">
       <c r="A239" s="75" t="s">
         <v>587</v>
       </c>
@@ -26873,7 +26944,7 @@
       </c>
       <c r="N239" s="75"/>
     </row>
-    <row r="240" spans="1:14" ht="36">
+    <row r="240" spans="1:14" ht="37.5">
       <c r="A240" s="75" t="s">
         <v>587</v>
       </c>
@@ -26913,7 +26984,7 @@
       </c>
       <c r="N240" s="75"/>
     </row>
-    <row r="241" spans="1:14" ht="36">
+    <row r="241" spans="1:14" ht="37.5">
       <c r="A241" s="75" t="s">
         <v>587</v>
       </c>
@@ -26953,7 +27024,7 @@
       </c>
       <c r="N241" s="75"/>
     </row>
-    <row r="242" spans="1:14" ht="36">
+    <row r="242" spans="1:14" ht="37.5">
       <c r="A242" s="75" t="s">
         <v>587</v>
       </c>
@@ -26993,7 +27064,7 @@
       </c>
       <c r="N242" s="75"/>
     </row>
-    <row r="243" spans="1:14" ht="36">
+    <row r="243" spans="1:14" ht="37.5">
       <c r="A243" s="75" t="s">
         <v>587</v>
       </c>
@@ -27033,7 +27104,7 @@
       </c>
       <c r="N243" s="75"/>
     </row>
-    <row r="244" spans="1:14" ht="36">
+    <row r="244" spans="1:14" ht="37.5">
       <c r="A244" s="75" t="s">
         <v>587</v>
       </c>
@@ -27073,7 +27144,7 @@
       </c>
       <c r="N244" s="75"/>
     </row>
-    <row r="245" spans="1:14" ht="36">
+    <row r="245" spans="1:14" ht="37.5">
       <c r="A245" s="75" t="s">
         <v>587</v>
       </c>
@@ -27113,7 +27184,7 @@
       </c>
       <c r="N245" s="75"/>
     </row>
-    <row r="246" spans="1:14" ht="36">
+    <row r="246" spans="1:14" ht="37.5">
       <c r="A246" s="75" t="s">
         <v>574</v>
       </c>
@@ -27153,7 +27224,7 @@
       </c>
       <c r="N246" s="75"/>
     </row>
-    <row r="247" spans="1:14" ht="36">
+    <row r="247" spans="1:14" ht="37.5">
       <c r="A247" s="8" t="s">
         <v>318</v>
       </c>
@@ -27192,7 +27263,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="248" spans="1:14" ht="36">
+    <row r="248" spans="1:14" ht="37.5">
       <c r="A248" s="8" t="s">
         <v>318</v>
       </c>
@@ -27231,7 +27302,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="249" spans="1:14" ht="36">
+    <row r="249" spans="1:14" ht="37.5">
       <c r="A249" s="8" t="s">
         <v>318</v>
       </c>
@@ -27270,7 +27341,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="250" spans="1:14" ht="36">
+    <row r="250" spans="1:14" ht="37.5">
       <c r="A250" s="8" t="s">
         <v>318</v>
       </c>
@@ -27309,7 +27380,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="251" spans="1:14" ht="36">
+    <row r="251" spans="1:14" ht="37.5">
       <c r="A251" s="8" t="s">
         <v>318</v>
       </c>
@@ -27348,7 +27419,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="252" spans="1:14" ht="36">
+    <row r="252" spans="1:14" ht="37.5">
       <c r="A252" s="8" t="s">
         <v>318</v>
       </c>
@@ -27387,7 +27458,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="253" spans="1:14" ht="36">
+    <row r="253" spans="1:14" ht="37.5">
       <c r="A253" s="8" t="s">
         <v>318</v>
       </c>
@@ -27426,7 +27497,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="254" spans="1:14" ht="36">
+    <row r="254" spans="1:14" ht="37.5">
       <c r="A254" s="8" t="s">
         <v>318</v>
       </c>
@@ -27465,7 +27536,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="255" spans="1:14" ht="36">
+    <row r="255" spans="1:14" ht="37.5">
       <c r="A255" s="8" t="s">
         <v>318</v>
       </c>
@@ -27504,7 +27575,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="256" spans="1:14" ht="36">
+    <row r="256" spans="1:14" ht="37.5">
       <c r="A256" s="8" t="s">
         <v>318</v>
       </c>
@@ -27543,7 +27614,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="36">
+    <row r="257" spans="1:13" ht="37.5">
       <c r="A257" s="8" t="s">
         <v>318</v>
       </c>
@@ -27582,7 +27653,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="36">
+    <row r="258" spans="1:13" ht="37.5">
       <c r="A258" s="8" t="s">
         <v>318</v>
       </c>
@@ -27621,7 +27692,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="36">
+    <row r="259" spans="1:13" ht="37.5">
       <c r="A259" s="8" t="s">
         <v>318</v>
       </c>
@@ -27658,7 +27729,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="36">
+    <row r="260" spans="1:13" ht="37.5">
       <c r="A260" s="8" t="s">
         <v>316</v>
       </c>
@@ -27697,7 +27768,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="36">
+    <row r="261" spans="1:13" ht="37.5">
       <c r="A261" s="8" t="s">
         <v>314</v>
       </c>
@@ -27736,7 +27807,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="36">
+    <row r="262" spans="1:13" ht="37.5">
       <c r="A262" s="8" t="s">
         <v>314</v>
       </c>
@@ -27775,7 +27846,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="36">
+    <row r="263" spans="1:13" ht="37.5">
       <c r="A263" s="8" t="s">
         <v>314</v>
       </c>
@@ -27814,7 +27885,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="36">
+    <row r="264" spans="1:13" ht="37.5">
       <c r="A264" s="8" t="s">
         <v>314</v>
       </c>
@@ -27853,7 +27924,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="36">
+    <row r="265" spans="1:13" ht="37.5">
       <c r="A265" s="8" t="s">
         <v>314</v>
       </c>
@@ -27892,7 +27963,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="36">
+    <row r="266" spans="1:13" ht="37.5">
       <c r="A266" s="8" t="s">
         <v>314</v>
       </c>
@@ -27931,7 +28002,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="36">
+    <row r="267" spans="1:13" ht="37.5">
       <c r="A267" s="8" t="s">
         <v>314</v>
       </c>
@@ -27970,7 +28041,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="36">
+    <row r="268" spans="1:13" ht="37.5">
       <c r="A268" s="8" t="s">
         <v>314</v>
       </c>
@@ -28009,7 +28080,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="36">
+    <row r="269" spans="1:13" ht="56.25">
       <c r="A269" s="8" t="s">
         <v>312</v>
       </c>
@@ -28048,7 +28119,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="36">
+    <row r="270" spans="1:13" ht="56.25">
       <c r="A270" s="8" t="s">
         <v>310</v>
       </c>
@@ -28087,7 +28158,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="36">
+    <row r="271" spans="1:13" ht="56.25">
       <c r="A271" s="8" t="s">
         <v>310</v>
       </c>
@@ -28126,7 +28197,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="36">
+    <row r="272" spans="1:13" ht="56.25">
       <c r="A272" s="8" t="s">
         <v>310</v>
       </c>
@@ -28165,7 +28236,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="36">
+    <row r="273" spans="1:13" ht="56.25">
       <c r="A273" s="8" t="s">
         <v>310</v>
       </c>
@@ -28204,7 +28275,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="36">
+    <row r="274" spans="1:13" ht="56.25">
       <c r="A274" s="8" t="s">
         <v>310</v>
       </c>
@@ -28243,7 +28314,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="36">
+    <row r="275" spans="1:13" ht="56.25">
       <c r="A275" s="8" t="s">
         <v>310</v>
       </c>
@@ -28282,7 +28353,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="36">
+    <row r="276" spans="1:13" ht="56.25">
       <c r="A276" s="8" t="s">
         <v>224</v>
       </c>
@@ -28321,7 +28392,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="36">
+    <row r="277" spans="1:13" ht="56.25">
       <c r="A277" s="8" t="s">
         <v>224</v>
       </c>
@@ -28360,7 +28431,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="36">
+    <row r="278" spans="1:13" ht="56.25">
       <c r="A278" s="8" t="s">
         <v>224</v>
       </c>
@@ -28399,7 +28470,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="36">
+    <row r="279" spans="1:13" ht="56.25">
       <c r="A279" s="8" t="s">
         <v>224</v>
       </c>
@@ -28438,7 +28509,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="36">
+    <row r="280" spans="1:13" ht="56.25">
       <c r="A280" s="8" t="s">
         <v>224</v>
       </c>
@@ -28477,7 +28548,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="36">
+    <row r="281" spans="1:13" ht="56.25">
       <c r="A281" s="8" t="s">
         <v>224</v>
       </c>
@@ -28516,7 +28587,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="36">
+    <row r="282" spans="1:13" ht="56.25">
       <c r="A282" s="8" t="s">
         <v>224</v>
       </c>
@@ -28555,7 +28626,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="36">
+    <row r="283" spans="1:13" ht="56.25">
       <c r="A283" s="8" t="s">
         <v>224</v>
       </c>
@@ -28594,7 +28665,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="36">
+    <row r="284" spans="1:13" ht="56.25">
       <c r="A284" s="8" t="s">
         <v>224</v>
       </c>
@@ -28633,7 +28704,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="36">
+    <row r="285" spans="1:13" ht="56.25">
       <c r="A285" s="8" t="s">
         <v>224</v>
       </c>
@@ -28672,7 +28743,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="36">
+    <row r="286" spans="1:13" ht="56.25">
       <c r="A286" s="8" t="s">
         <v>224</v>
       </c>
@@ -28711,7 +28782,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="36">
+    <row r="287" spans="1:13" ht="56.25">
       <c r="A287" s="8" t="s">
         <v>224</v>
       </c>
@@ -28750,7 +28821,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="36">
+    <row r="288" spans="1:13" ht="56.25">
       <c r="A288" s="8" t="s">
         <v>224</v>
       </c>
@@ -28789,7 +28860,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="36">
+    <row r="289" spans="1:13" ht="56.25">
       <c r="A289" s="8" t="s">
         <v>224</v>
       </c>
@@ -28828,7 +28899,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="36">
+    <row r="290" spans="1:13" ht="56.25">
       <c r="A290" s="8" t="s">
         <v>224</v>
       </c>
@@ -28867,7 +28938,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="36">
+    <row r="291" spans="1:13" ht="56.25">
       <c r="A291" s="8" t="s">
         <v>224</v>
       </c>
@@ -28906,7 +28977,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="36">
+    <row r="292" spans="1:13" ht="56.25">
       <c r="A292" s="8" t="s">
         <v>224</v>
       </c>
@@ -28945,7 +29016,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="36">
+    <row r="293" spans="1:13" ht="56.25">
       <c r="A293" s="8" t="s">
         <v>224</v>
       </c>
@@ -28984,7 +29055,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="18">
+    <row r="294" spans="1:13" ht="18.75">
       <c r="A294" s="8" t="s">
         <v>574</v>
       </c>
@@ -29023,7 +29094,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="36">
+    <row r="295" spans="1:13" ht="56.25">
       <c r="A295" s="8" t="s">
         <v>598</v>
       </c>
@@ -29062,7 +29133,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="36">
+    <row r="296" spans="1:13" ht="56.25">
       <c r="A296" s="8" t="s">
         <v>598</v>
       </c>
@@ -29101,7 +29172,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="297" spans="1:13" ht="36">
+    <row r="297" spans="1:13" ht="56.25">
       <c r="A297" s="8" t="s">
         <v>598</v>
       </c>
@@ -29140,7 +29211,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="298" spans="1:13" ht="36">
+    <row r="298" spans="1:13" ht="56.25">
       <c r="A298" s="8" t="s">
         <v>598</v>
       </c>
@@ -29179,7 +29250,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="36">
+    <row r="299" spans="1:13" ht="56.25">
       <c r="A299" s="8" t="s">
         <v>598</v>
       </c>
@@ -29218,7 +29289,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="300" spans="1:13" ht="36">
+    <row r="300" spans="1:13" ht="56.25">
       <c r="A300" s="8" t="s">
         <v>598</v>
       </c>
@@ -29257,7 +29328,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="301" spans="1:13" ht="36">
+    <row r="301" spans="1:13" ht="56.25">
       <c r="A301" s="8" t="s">
         <v>598</v>
       </c>
@@ -29296,7 +29367,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="302" spans="1:13" ht="36">
+    <row r="302" spans="1:13" ht="56.25">
       <c r="A302" s="8" t="s">
         <v>598</v>
       </c>
@@ -29335,7 +29406,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="303" spans="1:13" ht="36">
+    <row r="303" spans="1:13" ht="56.25">
       <c r="A303" s="8" t="s">
         <v>598</v>
       </c>
@@ -29374,7 +29445,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="304" spans="1:13" ht="36">
+    <row r="304" spans="1:13" ht="56.25">
       <c r="A304" s="8" t="s">
         <v>598</v>
       </c>
@@ -29413,7 +29484,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="305" spans="1:13" ht="36">
+    <row r="305" spans="1:13" ht="56.25">
       <c r="A305" s="8" t="s">
         <v>598</v>
       </c>
@@ -29452,7 +29523,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="306" spans="1:13" ht="36">
+    <row r="306" spans="1:13" ht="56.25">
       <c r="A306" s="8" t="s">
         <v>598</v>
       </c>
@@ -29512,20 +29583,20 @@
       <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="51.44140625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1"/>
-    <col min="10" max="12" width="24.33203125" customWidth="1"/>
-    <col min="13" max="13" width="33.33203125" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" customWidth="1"/>
-    <col min="15" max="15" width="31.6640625" customWidth="1"/>
-    <col min="16" max="16" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="10" max="12" width="24.28515625" customWidth="1"/>
+    <col min="13" max="13" width="33.28515625" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="15" max="15" width="31.7109375" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="63">
@@ -31419,21 +31490,21 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="48.7109375" customWidth="1"/>
     <col min="2" max="2" width="48" style="24" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="25" customWidth="1"/>
     <col min="4" max="4" width="12" style="26" customWidth="1"/>
-    <col min="5" max="9" width="14.33203125" style="24" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="24" customWidth="1"/>
-    <col min="11" max="11" width="24.6640625" style="24" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" style="25" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" style="24" customWidth="1"/>
+    <col min="5" max="9" width="14.28515625" style="24" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" style="24" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="25" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="24" customWidth="1"/>
     <col min="14" max="14" width="17" style="24" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" style="25" customWidth="1"/>
-    <col min="16" max="16" width="21.6640625" style="24" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" style="24" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" style="25" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" style="24" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="7" customFormat="1" ht="57.75" customHeight="1">
@@ -33110,20 +33181,20 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="48.7109375" customWidth="1"/>
     <col min="2" max="2" width="48" style="24" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="25" customWidth="1"/>
     <col min="4" max="4" width="12" style="26" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="38.6640625" style="24" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="25" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="24" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" style="25" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" style="24" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" style="24" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="24" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="24" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="25" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" style="24" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" customHeight="1">
@@ -34864,23 +34935,23 @@
       <selection activeCell="I46" sqref="I46:L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="51.44140625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="21" style="145" customWidth="1"/>
     <col min="7" max="7" width="16" style="145" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" style="148" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" style="145" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" style="148" customWidth="1"/>
-    <col min="11" max="11" width="24.33203125" style="145" customWidth="1"/>
-    <col min="12" max="12" width="24.33203125" customWidth="1"/>
-    <col min="13" max="13" width="33.33203125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="31.6640625" customWidth="1"/>
-    <col min="16" max="16" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" style="148" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" style="145" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" style="148" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" style="145" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" customWidth="1"/>
+    <col min="13" max="13" width="33.28515625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="31.7109375" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="63">
@@ -36890,7 +36961,7 @@
       <c r="N48" s="31"/>
       <c r="O48" s="31"/>
     </row>
-    <row r="49" spans="4:15" ht="31.2" customHeight="1">
+    <row r="49" spans="4:15" ht="31.15" customHeight="1">
       <c r="D49" s="150"/>
       <c r="E49" s="134" t="s">
         <v>40</v>
@@ -36992,7 +37063,7 @@
       <c r="N51" s="19"/>
       <c r="O51" s="19"/>
     </row>
-    <row r="52" spans="4:15" ht="34.200000000000003" customHeight="1">
+    <row r="52" spans="4:15" ht="34.15" customHeight="1">
       <c r="E52" s="134" t="s">
         <v>74</v>
       </c>
@@ -37025,7 +37096,7 @@
       <c r="N52" s="19"/>
       <c r="O52" s="19"/>
     </row>
-    <row r="53" spans="4:15" ht="34.200000000000003" customHeight="1">
+    <row r="53" spans="4:15" ht="34.15" customHeight="1">
       <c r="E53" s="134" t="s">
         <v>97</v>
       </c>
